--- a/exp/HT8310ex2/BO_log.xlsx
+++ b/exp/HT8310ex2/BO_log.xlsx
@@ -145,12 +145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P93" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,103 +488,103 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3578,109 +3585,109 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>20220617</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>54713</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
         <v>-1</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>31</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>999983</v>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="M30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
         <v>0.1</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="2">
         <v>50</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R30" t="b">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="R30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V30" t="b">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="T30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>-100</v>
-      </c>
-      <c r="Z30">
-        <v>-100</v>
-      </c>
-      <c r="AA30">
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>-100</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AA30" s="2">
         <v>0.115639491814561</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="2">
         <v>0.71881788856445294</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="2">
         <v>807</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="2">
         <v>5455</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="2">
         <v>53</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="2">
         <v>1.35646801168736E-2</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="2">
         <v>11876</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="2">
         <v>16924000</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" s="2">
         <v>29</v>
       </c>
     </row>
